--- a/biology/Botanique/Mysanthus_uleanus/Mysanthus_uleanus.xlsx
+++ b/biology/Botanique/Mysanthus_uleanus/Mysanthus_uleanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mysanthus uleanus est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Amérique du Sud. C'est l'unique espèce acceptée du genre Mysanthus (genre monotypique). 
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (8 décembre 2018)[2] 
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (8 décembre 2018) 
 Mysanthus uleanus var. uleanus
-Phaseolus uleanus Harms
-Liste des variétés
-Selon Tropicos                                           (8 décembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Phaseolus uleanus Harms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mysanthus_uleanus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mysanthus_uleanus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (8 décembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Mysanthus uleanus var. dolicopsoides (Hoehne) G.P. Lewis &amp; A. Delgado
 Mysanthus uleanus var. uleanus
 </t>
